--- a/real_tings/Round 1 Data FC.xlsx
+++ b/real_tings/Round 1 Data FC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitHub\nikos\preprocessing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitHub\nikos\real_tings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Demand</t>
-  </si>
-  <si>
-    <t>?????</t>
   </si>
 </sst>
 </file>
@@ -916,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K915"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A890" workbookViewId="0">
-      <selection activeCell="L904" sqref="L904"/>
+    <sheetView tabSelected="1" topLeftCell="B674" workbookViewId="0">
+      <selection activeCell="J683" sqref="J683"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -26571,8 +26568,8 @@
       <c r="J733" s="3">
         <v>6.7916664282480879</v>
       </c>
-      <c r="K733" s="2" t="s">
-        <v>9</v>
+      <c r="K733" s="2">
+        <v>813.22957370871552</v>
       </c>
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
@@ -26606,8 +26603,8 @@
       <c r="J734" s="3">
         <v>7.125</v>
       </c>
-      <c r="K734" s="2" t="s">
-        <v>9</v>
+      <c r="K734" s="2">
+        <v>716.441810666729</v>
       </c>
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
@@ -26641,8 +26638,8 @@
       <c r="J735" s="3">
         <v>7.166666666666667</v>
       </c>
-      <c r="K735" s="2" t="s">
-        <v>9</v>
+      <c r="K735" s="2">
+        <v>708.28031042007012</v>
       </c>
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
@@ -26676,8 +26673,8 @@
       <c r="J736" s="3">
         <v>7.083333333333333</v>
       </c>
-      <c r="K736" s="2" t="s">
-        <v>9</v>
+      <c r="K736" s="2">
+        <v>698.93666792181614</v>
       </c>
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
@@ -26711,8 +26708,8 @@
       <c r="J737" s="3">
         <v>6.104166666666667</v>
       </c>
-      <c r="K737" s="2" t="s">
-        <v>9</v>
+      <c r="K737" s="2">
+        <v>720.35810854159718</v>
       </c>
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
@@ -26746,8 +26743,8 @@
       <c r="J738" s="3">
         <v>5.8312499523162842</v>
       </c>
-      <c r="K738" s="2" t="s">
-        <v>9</v>
+      <c r="K738" s="2">
+        <v>729.32279402395761</v>
       </c>
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
@@ -26781,8 +26778,8 @@
       <c r="J739" s="3">
         <v>5.6874998410542803</v>
       </c>
-      <c r="K739" s="2" t="s">
-        <v>9</v>
+      <c r="K739" s="2">
+        <v>716.93578006286089</v>
       </c>
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
@@ -26816,8 +26813,8 @@
       <c r="J740" s="3">
         <v>6.9395833015441895</v>
       </c>
-      <c r="K740" s="2" t="s">
-        <v>9</v>
+      <c r="K740" s="2">
+        <v>658.20475065978269</v>
       </c>
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
@@ -26851,8 +26848,8 @@
       <c r="J741" s="3">
         <v>6.166666666666667</v>
       </c>
-      <c r="K741" s="2" t="s">
-        <v>9</v>
+      <c r="K741" s="2">
+        <v>729.30030643962118</v>
       </c>
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
@@ -26886,8 +26883,8 @@
       <c r="J742" s="3">
         <v>4.7291665077209473</v>
       </c>
-      <c r="K742" s="2" t="s">
-        <v>9</v>
+      <c r="K742" s="2">
+        <v>655.5991951544878</v>
       </c>
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
@@ -26921,8 +26918,8 @@
       <c r="J743" s="3">
         <v>6.9208332697550459</v>
       </c>
-      <c r="K743" s="2" t="s">
-        <v>9</v>
+      <c r="K743" s="2">
+        <v>691.5686570867374</v>
       </c>
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
@@ -26956,8 +26953,8 @@
       <c r="J744" s="3">
         <v>7.8583328723907471</v>
       </c>
-      <c r="K744" s="2" t="s">
-        <v>9</v>
+      <c r="K744" s="2">
+        <v>727.78177038831291</v>
       </c>
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
@@ -26991,8 +26988,8 @@
       <c r="J745" s="3">
         <v>7.291666666666667</v>
       </c>
-      <c r="K745" s="2" t="s">
-        <v>9</v>
+      <c r="K745" s="2">
+        <v>701.90696531381514</v>
       </c>
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
@@ -27026,8 +27023,8 @@
       <c r="J746" s="3">
         <v>7.8624998728434248</v>
       </c>
-      <c r="K746" s="2" t="s">
-        <v>9</v>
+      <c r="K746" s="2">
+        <v>760.74821159044927</v>
       </c>
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
@@ -27061,8 +27058,8 @@
       <c r="J747" s="3">
         <v>7.541666666666667</v>
       </c>
-      <c r="K747" s="2" t="s">
-        <v>9</v>
+      <c r="K747" s="2">
+        <v>801.98096977156877</v>
       </c>
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
@@ -27096,8 +27093,8 @@
       <c r="J748" s="3">
         <v>5.2979166507720947</v>
       </c>
-      <c r="K748" s="2" t="s">
-        <v>9</v>
+      <c r="K748" s="2">
+        <v>701.55554638633464</v>
       </c>
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
@@ -27131,8 +27128,8 @@
       <c r="J749" s="3">
         <v>5.4937498569488525</v>
       </c>
-      <c r="K749" s="2" t="s">
-        <v>9</v>
+      <c r="K749" s="2">
+        <v>685.07836973823851</v>
       </c>
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
@@ -27166,8 +27163,8 @@
       <c r="J750" s="3">
         <v>4.0437498490015669</v>
       </c>
-      <c r="K750" s="2" t="s">
-        <v>9</v>
+      <c r="K750" s="2">
+        <v>684.90871129696973</v>
       </c>
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.25">
@@ -27201,8 +27198,8 @@
       <c r="J751" s="3">
         <v>4.2520829041798907</v>
       </c>
-      <c r="K751" s="2" t="s">
-        <v>9</v>
+      <c r="K751" s="2">
+        <v>637.31231709943938</v>
       </c>
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.25">
@@ -27236,8 +27233,8 @@
       <c r="J752" s="3">
         <v>2.7166663805643716</v>
       </c>
-      <c r="K752" s="2" t="s">
-        <v>9</v>
+      <c r="K752" s="2">
+        <v>568.15400357278497</v>
       </c>
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
@@ -27271,8 +27268,8 @@
       <c r="J753" s="3">
         <v>4.1958328485488892</v>
       </c>
-      <c r="K753" s="2" t="s">
-        <v>9</v>
+      <c r="K753" s="2">
+        <v>568.24907306110117</v>
       </c>
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.25">
@@ -27306,8 +27303,8 @@
       <c r="J754" s="3">
         <v>5.0458329916000366</v>
       </c>
-      <c r="K754" s="2" t="s">
-        <v>9</v>
+      <c r="K754" s="2">
+        <v>628.34612769559271</v>
       </c>
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.25">
@@ -27341,8 +27338,8 @@
       <c r="J755" s="3">
         <v>5.2104164361953735</v>
       </c>
-      <c r="K755" s="2" t="s">
-        <v>9</v>
+      <c r="K755" s="2">
+        <v>690.41479205450628</v>
       </c>
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.25">
@@ -27376,8 +27373,8 @@
       <c r="J756" s="3">
         <v>6.8437499205271406</v>
       </c>
-      <c r="K756" s="2" t="s">
-        <v>9</v>
+      <c r="K756" s="2">
+        <v>686.74278332600113</v>
       </c>
     </row>
     <row r="757" spans="1:11" x14ac:dyDescent="0.25">
@@ -27411,8 +27408,8 @@
       <c r="J757" s="3">
         <v>5.90625</v>
       </c>
-      <c r="K757" s="2" t="s">
-        <v>9</v>
+      <c r="K757" s="2">
+        <v>712.44481584410596</v>
       </c>
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.25">
@@ -27446,8 +27443,8 @@
       <c r="J758" s="3">
         <v>5.364583333333333</v>
       </c>
-      <c r="K758" s="2" t="s">
-        <v>9</v>
+      <c r="K758" s="2">
+        <v>666.54434773996081</v>
       </c>
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.25">
@@ -27481,8 +27478,8 @@
       <c r="J759" s="3">
         <v>5.458333333333333</v>
       </c>
-      <c r="K759" s="2" t="s">
-        <v>9</v>
+      <c r="K759" s="2">
+        <v>709.61044634643213</v>
       </c>
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.25">
@@ -27516,8 +27513,8 @@
       <c r="J760" s="3">
         <v>5.1083329916000366</v>
       </c>
-      <c r="K760" s="2" t="s">
-        <v>9</v>
+      <c r="K760" s="2">
+        <v>759.05697810904576</v>
       </c>
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.25">
@@ -27551,8 +27548,8 @@
       <c r="J761" s="3">
         <v>6.1875</v>
       </c>
-      <c r="K761" s="2" t="s">
-        <v>9</v>
+      <c r="K761" s="2">
+        <v>698.08587203423315</v>
       </c>
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.25">
@@ -27586,8 +27583,8 @@
       <c r="J762" s="3">
         <v>3.5520831743876138</v>
       </c>
-      <c r="K762" s="2" t="s">
-        <v>9</v>
+      <c r="K762" s="2">
+        <v>585.61553605034919</v>
       </c>
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.25">
@@ -27621,8 +27618,8 @@
       <c r="J763" s="3">
         <v>6.2833333015441895</v>
       </c>
-      <c r="K763" s="2" t="s">
-        <v>9</v>
+      <c r="K763" s="2">
+        <v>659.2568139549727</v>
       </c>
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.25">
@@ -27656,8 +27653,8 @@
       <c r="J764" s="3">
         <v>4.8124998807907104</v>
       </c>
-      <c r="K764" s="2" t="s">
-        <v>9</v>
+      <c r="K764" s="2">
+        <v>635.89550805283307</v>
       </c>
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.25">
@@ -27691,8 +27688,8 @@
       <c r="J765" s="3">
         <v>3.8958332538604736</v>
       </c>
-      <c r="K765" s="2" t="s">
-        <v>9</v>
+      <c r="K765" s="2">
+        <v>608.43537494336874</v>
       </c>
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.25">
@@ -27726,8 +27723,8 @@
       <c r="J766" s="3">
         <v>5.1708331108093262</v>
       </c>
-      <c r="K766" s="2" t="s">
-        <v>9</v>
+      <c r="K766" s="2">
+        <v>554.75324482043459</v>
       </c>
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.25">
@@ -27761,8 +27758,8 @@
       <c r="J767" s="3">
         <v>5.3249998887379961</v>
       </c>
-      <c r="K767" s="2" t="s">
-        <v>9</v>
+      <c r="K767" s="2">
+        <v>536.61095647492846</v>
       </c>
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.25">
@@ -27796,8 +27793,8 @@
       <c r="J768" s="3">
         <v>4.71875</v>
       </c>
-      <c r="K768" s="2" t="s">
-        <v>9</v>
+      <c r="K768" s="2">
+        <v>560.44129808168032</v>
       </c>
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.25">
@@ -27831,8 +27828,8 @@
       <c r="J769" s="3">
         <v>7.854166666666667</v>
       </c>
-      <c r="K769" s="2" t="s">
-        <v>9</v>
+      <c r="K769" s="2">
+        <v>555.99166486395234</v>
       </c>
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.25">
@@ -27866,8 +27863,8 @@
       <c r="J770" s="3">
         <v>5.6999995708465576</v>
       </c>
-      <c r="K770" s="2" t="s">
-        <v>9</v>
+      <c r="K770" s="2">
+        <v>514.09456626752331</v>
       </c>
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.25">
@@ -27901,8 +27898,8 @@
       <c r="J771" s="3">
         <v>3.7812494436899819</v>
       </c>
-      <c r="K771" s="2" t="s">
-        <v>9</v>
+      <c r="K771" s="2">
+        <v>485.67445063059643</v>
       </c>
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.25">
@@ -27936,8 +27933,8 @@
       <c r="J772" s="3">
         <v>5.0249996185302734</v>
       </c>
-      <c r="K772" s="2" t="s">
-        <v>9</v>
+      <c r="K772" s="2">
+        <v>545.06817622470578</v>
       </c>
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.25">
@@ -27971,8 +27968,8 @@
       <c r="J773" s="3">
         <v>4.7437498966852827</v>
       </c>
-      <c r="K773" s="2" t="s">
-        <v>9</v>
+      <c r="K773" s="2">
+        <v>561.77520740290925</v>
       </c>
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.25">
@@ -28006,8 +28003,8 @@
       <c r="J774" s="3">
         <v>3.9937499761581421</v>
       </c>
-      <c r="K774" s="2" t="s">
-        <v>9</v>
+      <c r="K774" s="2">
+        <v>522.74443652196794</v>
       </c>
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.25">
@@ -28041,8 +28038,8 @@
       <c r="J775" s="3">
         <v>6.8125</v>
       </c>
-      <c r="K775" s="2" t="s">
-        <v>9</v>
+      <c r="K775" s="2">
+        <v>609.48765452028886</v>
       </c>
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.25">
@@ -28076,8 +28073,8 @@
       <c r="J776" s="3">
         <v>5.6395832697550459</v>
       </c>
-      <c r="K776" s="2" t="s">
-        <v>9</v>
+      <c r="K776" s="2">
+        <v>563.77614846196366</v>
       </c>
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.25">
@@ -28111,8 +28108,8 @@
       <c r="J777" s="3">
         <v>7.0145831902821856</v>
       </c>
-      <c r="K777" s="2" t="s">
-        <v>9</v>
+      <c r="K777" s="2">
+        <v>546.19667527279614</v>
       </c>
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.25">
@@ -28146,8 +28143,8 @@
       <c r="J778" s="3">
         <v>6.3520831267038984</v>
       </c>
-      <c r="K778" s="2" t="s">
-        <v>9</v>
+      <c r="K778" s="2">
+        <v>545.01234247153297</v>
       </c>
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.25">
@@ -28181,8 +28178,8 @@
       <c r="J779" s="3">
         <v>5.3479165236155195</v>
       </c>
-      <c r="K779" s="2" t="s">
-        <v>9</v>
+      <c r="K779" s="2">
+        <v>518.95339453581892</v>
       </c>
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.25">
@@ -28216,8 +28213,8 @@
       <c r="J780" s="3">
         <v>6.4520831108093262</v>
       </c>
-      <c r="K780" s="2" t="s">
-        <v>9</v>
+      <c r="K780" s="2">
+        <v>526.00200952797718</v>
       </c>
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.25">
@@ -28251,8 +28248,8 @@
       <c r="J781" s="3">
         <v>7.2833331425984698</v>
       </c>
-      <c r="K781" s="2" t="s">
-        <v>9</v>
+      <c r="K781" s="2">
+        <v>493.5882463424141</v>
       </c>
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.25">
@@ -28286,8 +28283,8 @@
       <c r="J782" s="3">
         <v>5.770833333333333</v>
       </c>
-      <c r="K782" s="2" t="s">
-        <v>9</v>
+      <c r="K782" s="2">
+        <v>531.92498468245731</v>
       </c>
     </row>
     <row r="783" spans="1:11" x14ac:dyDescent="0.25">
@@ -28321,8 +28318,8 @@
       <c r="J783" s="3">
         <v>5.7333332697550459</v>
       </c>
-      <c r="K783" s="2" t="s">
-        <v>9</v>
+      <c r="K783" s="2">
+        <v>526.64341818109733</v>
       </c>
     </row>
     <row r="784" spans="1:11" x14ac:dyDescent="0.25">
@@ -28356,8 +28353,8 @@
       <c r="J784" s="3">
         <v>4.2729165355364485</v>
       </c>
-      <c r="K784" s="2" t="s">
-        <v>9</v>
+      <c r="K784" s="2">
+        <v>504.23226797460279</v>
       </c>
     </row>
     <row r="785" spans="1:11" x14ac:dyDescent="0.25">
@@ -28391,8 +28388,8 @@
       <c r="J785" s="3">
         <v>4.7312499284744263</v>
       </c>
-      <c r="K785" s="2" t="s">
-        <v>9</v>
+      <c r="K785" s="2">
+        <v>484.52532600046811</v>
       </c>
     </row>
     <row r="786" spans="1:11" x14ac:dyDescent="0.25">
@@ -28426,8 +28423,8 @@
       <c r="J786" s="3">
         <v>5.4666664203008013</v>
       </c>
-      <c r="K786" s="2" t="s">
-        <v>9</v>
+      <c r="K786" s="2">
+        <v>516.34572700041133</v>
       </c>
     </row>
     <row r="787" spans="1:11" x14ac:dyDescent="0.25">
@@ -28461,8 +28458,8 @@
       <c r="J787" s="3">
         <v>7.791666666666667</v>
       </c>
-      <c r="K787" s="2" t="s">
-        <v>9</v>
+      <c r="K787" s="2">
+        <v>550.74213858865608</v>
       </c>
     </row>
     <row r="788" spans="1:11" x14ac:dyDescent="0.25">
@@ -28496,8 +28493,8 @@
       <c r="J788" s="3">
         <v>7.9375</v>
       </c>
-      <c r="K788" s="2" t="s">
-        <v>9</v>
+      <c r="K788" s="2">
+        <v>538.10442383766417</v>
       </c>
     </row>
     <row r="789" spans="1:11" x14ac:dyDescent="0.25">
@@ -28531,8 +28528,8 @@
       <c r="J789" s="3">
         <v>6.989583333333333</v>
       </c>
-      <c r="K789" s="2" t="s">
-        <v>9</v>
+      <c r="K789" s="2">
+        <v>498.96910613661021</v>
       </c>
     </row>
     <row r="790" spans="1:11" x14ac:dyDescent="0.25">
@@ -28566,8 +28563,8 @@
       <c r="J790" s="3">
         <v>6.2604165871938067</v>
       </c>
-      <c r="K790" s="2" t="s">
-        <v>9</v>
+      <c r="K790" s="2">
+        <v>472.51137442788809</v>
       </c>
     </row>
     <row r="791" spans="1:11" x14ac:dyDescent="0.25">
@@ -28601,8 +28598,8 @@
       <c r="J791" s="3">
         <v>6.875</v>
       </c>
-      <c r="K791" s="2" t="s">
-        <v>9</v>
+      <c r="K791" s="2">
+        <v>468.97956546527359</v>
       </c>
     </row>
     <row r="792" spans="1:11" x14ac:dyDescent="0.25">
@@ -28636,8 +28633,8 @@
       <c r="J792" s="3">
         <v>6.5729166269302368</v>
       </c>
-      <c r="K792" s="2" t="s">
-        <v>9</v>
+      <c r="K792" s="2">
+        <v>465.40667485279926</v>
       </c>
     </row>
     <row r="793" spans="1:11" x14ac:dyDescent="0.25">
@@ -28671,8 +28668,8 @@
       <c r="J793" s="3">
         <v>7.6104165712992353</v>
       </c>
-      <c r="K793" s="2" t="s">
-        <v>9</v>
+      <c r="K793" s="2">
+        <v>476.38611315277694</v>
       </c>
     </row>
     <row r="794" spans="1:11" x14ac:dyDescent="0.25">
@@ -28706,8 +28703,8 @@
       <c r="J794" s="3">
         <v>7.375</v>
       </c>
-      <c r="K794" s="2" t="s">
-        <v>9</v>
+      <c r="K794" s="2">
+        <v>484.43712407888631</v>
       </c>
     </row>
     <row r="795" spans="1:11" x14ac:dyDescent="0.25">
@@ -28741,8 +28738,8 @@
       <c r="J795" s="3">
         <v>7.0625</v>
       </c>
-      <c r="K795" s="2" t="s">
-        <v>9</v>
+      <c r="K795" s="2">
+        <v>492.49761434604329</v>
       </c>
     </row>
     <row r="796" spans="1:11" x14ac:dyDescent="0.25">
@@ -28776,8 +28773,8 @@
       <c r="J796" s="3">
         <v>6.5541665951410932</v>
       </c>
-      <c r="K796" s="2" t="s">
-        <v>9</v>
+      <c r="K796" s="2">
+        <v>446.01471769257773</v>
       </c>
     </row>
     <row r="797" spans="1:11" x14ac:dyDescent="0.25">
@@ -28811,8 +28808,8 @@
       <c r="J797" s="3">
         <v>6.5</v>
       </c>
-      <c r="K797" s="2" t="s">
-        <v>9</v>
+      <c r="K797" s="2">
+        <v>423.3968490070767</v>
       </c>
     </row>
     <row r="798" spans="1:11" x14ac:dyDescent="0.25">
@@ -28846,8 +28843,8 @@
       <c r="J798" s="3">
         <v>5.2937497695287066</v>
       </c>
-      <c r="K798" s="2" t="s">
-        <v>9</v>
+      <c r="K798" s="2">
+        <v>440.8262540297755</v>
       </c>
     </row>
     <row r="799" spans="1:11" x14ac:dyDescent="0.25">
@@ -28881,8 +28878,8 @@
       <c r="J799" s="3">
         <v>4.0395827690760298</v>
       </c>
-      <c r="K799" s="2" t="s">
-        <v>9</v>
+      <c r="K799" s="2">
+        <v>387.82794055185764</v>
       </c>
     </row>
     <row r="800" spans="1:11" x14ac:dyDescent="0.25">
@@ -28916,8 +28913,8 @@
       <c r="J800" s="3">
         <v>2.899999737739563</v>
       </c>
-      <c r="K800" s="2" t="s">
-        <v>9</v>
+      <c r="K800" s="2">
+        <v>367.44815502947949</v>
       </c>
     </row>
     <row r="801" spans="1:11" x14ac:dyDescent="0.25">
@@ -28951,8 +28948,8 @@
       <c r="J801" s="3">
         <v>5.2541666030883789</v>
       </c>
-      <c r="K801" s="2" t="s">
-        <v>9</v>
+      <c r="K801" s="2">
+        <v>436.36464131072034</v>
       </c>
     </row>
     <row r="802" spans="1:11" x14ac:dyDescent="0.25">
@@ -28986,8 +28983,8 @@
       <c r="J802" s="3">
         <v>5.8562499682108564</v>
       </c>
-      <c r="K802" s="2" t="s">
-        <v>9</v>
+      <c r="K802" s="2">
+        <v>434.5079949243152</v>
       </c>
     </row>
     <row r="803" spans="1:11" x14ac:dyDescent="0.25">
@@ -29021,8 +29018,8 @@
       <c r="J803" s="3">
         <v>7.666666666666667</v>
       </c>
-      <c r="K803" s="2" t="s">
-        <v>9</v>
+      <c r="K803" s="2">
+        <v>441.84179325123824</v>
       </c>
     </row>
     <row r="804" spans="1:11" x14ac:dyDescent="0.25">
@@ -29056,8 +29053,8 @@
       <c r="J804" s="3">
         <v>7.9854165712992353</v>
       </c>
-      <c r="K804" s="2" t="s">
-        <v>9</v>
+      <c r="K804" s="2">
+        <v>461.52964382859466</v>
       </c>
     </row>
     <row r="805" spans="1:11" x14ac:dyDescent="0.25">
@@ -29091,8 +29088,8 @@
       <c r="J805" s="3">
         <v>7.9666664600372314</v>
       </c>
-      <c r="K805" s="2" t="s">
-        <v>9</v>
+      <c r="K805" s="2">
+        <v>453.58938673362871</v>
       </c>
     </row>
     <row r="806" spans="1:11" x14ac:dyDescent="0.25">
@@ -29126,8 +29123,8 @@
       <c r="J806" s="3">
         <v>7.8312499523162842</v>
       </c>
-      <c r="K806" s="2" t="s">
-        <v>9</v>
+      <c r="K806" s="2">
+        <v>477.92406693027181</v>
       </c>
     </row>
     <row r="807" spans="1:11" x14ac:dyDescent="0.25">
@@ -29161,8 +29158,8 @@
       <c r="J807" s="3">
         <v>6.833333333333333</v>
       </c>
-      <c r="K807" s="2" t="s">
-        <v>9</v>
+      <c r="K807" s="2">
+        <v>407.29157485036791</v>
       </c>
     </row>
     <row r="808" spans="1:11" x14ac:dyDescent="0.25">
@@ -29196,8 +29193,8 @@
       <c r="J808" s="3">
         <v>7.541666666666667</v>
       </c>
-      <c r="K808" s="2" t="s">
-        <v>9</v>
+      <c r="K808" s="2">
+        <v>409.83808729139821</v>
       </c>
     </row>
     <row r="809" spans="1:11" x14ac:dyDescent="0.25">
@@ -29231,8 +29228,8 @@
       <c r="J809" s="3">
         <v>7.895833333333333</v>
       </c>
-      <c r="K809" s="2" t="s">
-        <v>9</v>
+      <c r="K809" s="2">
+        <v>459.48905058410082</v>
       </c>
     </row>
     <row r="810" spans="1:11" x14ac:dyDescent="0.25">
@@ -29266,8 +29263,8 @@
       <c r="J810" s="3">
         <v>7.458333333333333</v>
       </c>
-      <c r="K810" s="2" t="s">
-        <v>9</v>
+      <c r="K810" s="2">
+        <v>432.26458512870158</v>
       </c>
     </row>
     <row r="811" spans="1:11" x14ac:dyDescent="0.25">
@@ -29301,8 +29298,8 @@
       <c r="J811" s="3">
         <v>6.8125</v>
       </c>
-      <c r="K811" s="2" t="s">
-        <v>9</v>
+      <c r="K811" s="2">
+        <v>451.89077919905986</v>
       </c>
     </row>
     <row r="812" spans="1:11" x14ac:dyDescent="0.25">
@@ -29336,8 +29333,8 @@
       <c r="J812" s="3">
         <v>6.7145833174387617</v>
       </c>
-      <c r="K812" s="2" t="s">
-        <v>9</v>
+      <c r="K812" s="2">
+        <v>393.00789632421123</v>
       </c>
     </row>
     <row r="813" spans="1:11" x14ac:dyDescent="0.25">
@@ -29371,8 +29368,8 @@
       <c r="J813" s="3">
         <v>6.125</v>
       </c>
-      <c r="K813" s="2" t="s">
-        <v>9</v>
+      <c r="K813" s="2">
+        <v>447.17077130706349</v>
       </c>
     </row>
     <row r="814" spans="1:11" x14ac:dyDescent="0.25">
@@ -29406,8 +29403,8 @@
       <c r="J814" s="3">
         <v>6.6479166348775225</v>
       </c>
-      <c r="K814" s="2" t="s">
-        <v>9</v>
+      <c r="K814" s="2">
+        <v>411.97599082313582</v>
       </c>
     </row>
     <row r="815" spans="1:11" x14ac:dyDescent="0.25">
@@ -29441,8 +29438,8 @@
       <c r="J815" s="3">
         <v>5.0624999205271406</v>
       </c>
-      <c r="K815" s="2" t="s">
-        <v>9</v>
+      <c r="K815" s="2">
+        <v>384.9818614568826</v>
       </c>
     </row>
     <row r="816" spans="1:11" x14ac:dyDescent="0.25">
@@ -29476,8 +29473,8 @@
       <c r="J816" s="3">
         <v>3.6395829518636069</v>
       </c>
-      <c r="K816" s="2" t="s">
-        <v>9</v>
+      <c r="K816" s="2">
+        <v>338.23630763730773</v>
       </c>
     </row>
     <row r="817" spans="1:11" x14ac:dyDescent="0.25">
@@ -29511,8 +29508,8 @@
       <c r="J817" s="3">
         <v>5.4062499602635699</v>
       </c>
-      <c r="K817" s="2" t="s">
-        <v>9</v>
+      <c r="K817" s="2">
+        <v>391.91365847861266</v>
       </c>
     </row>
     <row r="818" spans="1:11" x14ac:dyDescent="0.25">
@@ -29546,8 +29543,8 @@
       <c r="J818" s="3">
         <v>5.8187499046325684</v>
       </c>
-      <c r="K818" s="2" t="s">
-        <v>9</v>
+      <c r="K818" s="2">
+        <v>398.29464410080902</v>
       </c>
     </row>
     <row r="819" spans="1:11" x14ac:dyDescent="0.25">
@@ -29581,8 +29578,8 @@
       <c r="J819" s="3">
         <v>5.729166666666667</v>
       </c>
-      <c r="K819" s="2" t="s">
-        <v>9</v>
+      <c r="K819" s="2">
+        <v>409.44755704903719</v>
       </c>
     </row>
     <row r="820" spans="1:11" x14ac:dyDescent="0.25">
@@ -29616,8 +29613,8 @@
       <c r="J820" s="3">
         <v>5.4395832618077593</v>
       </c>
-      <c r="K820" s="2" t="s">
-        <v>9</v>
+      <c r="K820" s="2">
+        <v>497.71670928769771</v>
       </c>
     </row>
     <row r="821" spans="1:11" x14ac:dyDescent="0.25">
@@ -29651,8 +29648,8 @@
       <c r="J821" s="3">
         <v>5.2312498887379961</v>
       </c>
-      <c r="K821" s="2" t="s">
-        <v>9</v>
+      <c r="K821" s="2">
+        <v>455.13888920142472</v>
       </c>
     </row>
     <row r="822" spans="1:11" x14ac:dyDescent="0.25">
@@ -29686,8 +29683,8 @@
       <c r="J822" s="3">
         <v>6.4979166189829511</v>
       </c>
-      <c r="K822" s="2" t="s">
-        <v>9</v>
+      <c r="K822" s="2">
+        <v>422.56070113366638</v>
       </c>
     </row>
     <row r="823" spans="1:11" x14ac:dyDescent="0.25">
@@ -29721,8 +29718,8 @@
       <c r="J823" s="3">
         <v>5.291666666666667</v>
       </c>
-      <c r="K823" s="2" t="s">
-        <v>9</v>
+      <c r="K823" s="2">
+        <v>458.13845072608569</v>
       </c>
     </row>
     <row r="824" spans="1:11" x14ac:dyDescent="0.25">
@@ -29756,8 +29753,8 @@
       <c r="J824" s="3">
         <v>6.041666666666667</v>
       </c>
-      <c r="K824" s="2" t="s">
-        <v>9</v>
+      <c r="K824" s="2">
+        <v>429.25044499498148</v>
       </c>
     </row>
     <row r="825" spans="1:11" x14ac:dyDescent="0.25">
@@ -29791,8 +29788,8 @@
       <c r="J825" s="3">
         <v>4.572916666666667</v>
       </c>
-      <c r="K825" s="2" t="s">
-        <v>9</v>
+      <c r="K825" s="2">
+        <v>470.26944840051226</v>
       </c>
     </row>
     <row r="826" spans="1:11" x14ac:dyDescent="0.25">
@@ -29826,8 +29823,8 @@
       <c r="J826" s="3">
         <v>4.933333158493042</v>
       </c>
-      <c r="K826" s="2" t="s">
-        <v>9</v>
+      <c r="K826" s="2">
+        <v>491.67685145863163</v>
       </c>
     </row>
     <row r="827" spans="1:11" x14ac:dyDescent="0.25">
@@ -29861,8 +29858,8 @@
       <c r="J827" s="3">
         <v>7.270833333333333</v>
       </c>
-      <c r="K827" s="2" t="s">
-        <v>9</v>
+      <c r="K827" s="2">
+        <v>359.34134622093615</v>
       </c>
     </row>
     <row r="828" spans="1:11" x14ac:dyDescent="0.25">
@@ -29896,8 +29893,8 @@
       <c r="J828" s="3">
         <v>6.1395833094914751</v>
       </c>
-      <c r="K828" s="2" t="s">
-        <v>9</v>
+      <c r="K828" s="2">
+        <v>433.88009842405472</v>
       </c>
     </row>
     <row r="829" spans="1:11" x14ac:dyDescent="0.25">
@@ -29931,8 +29928,8 @@
       <c r="J829" s="3">
         <v>5.835416316986084</v>
       </c>
-      <c r="K829" s="2" t="s">
-        <v>9</v>
+      <c r="K829" s="2">
+        <v>418.47637663323678</v>
       </c>
     </row>
     <row r="830" spans="1:11" x14ac:dyDescent="0.25">
@@ -29966,8 +29963,8 @@
       <c r="J830" s="3">
         <v>5.291666666666667</v>
       </c>
-      <c r="K830" s="2" t="s">
-        <v>9</v>
+      <c r="K830" s="2">
+        <v>409.07682837727828</v>
       </c>
     </row>
     <row r="831" spans="1:11" x14ac:dyDescent="0.25">
@@ -30001,8 +29998,8 @@
       <c r="J831" s="3">
         <v>5.9166665474573774</v>
       </c>
-      <c r="K831" s="2" t="s">
-        <v>9</v>
+      <c r="K831" s="2">
+        <v>424.37629836319741</v>
       </c>
     </row>
     <row r="832" spans="1:11" x14ac:dyDescent="0.25">
@@ -30036,8 +30033,8 @@
       <c r="J832" s="3">
         <v>7.110416491826375</v>
       </c>
-      <c r="K832" s="2" t="s">
-        <v>9</v>
+      <c r="K832" s="2">
+        <v>365.029984007986</v>
       </c>
     </row>
     <row r="833" spans="1:11" x14ac:dyDescent="0.25">
@@ -30071,8 +30068,8 @@
       <c r="J833" s="3">
         <v>5.6479166348775225</v>
       </c>
-      <c r="K833" s="2" t="s">
-        <v>9</v>
+      <c r="K833" s="2">
+        <v>402.07151103216631</v>
       </c>
     </row>
     <row r="834" spans="1:11" x14ac:dyDescent="0.25">
@@ -30106,8 +30103,8 @@
       <c r="J834" s="3">
         <v>6.625</v>
       </c>
-      <c r="K834" s="2" t="s">
-        <v>9</v>
+      <c r="K834" s="2">
+        <v>397.71174296014658</v>
       </c>
     </row>
     <row r="835" spans="1:11" x14ac:dyDescent="0.25">
@@ -30141,8 +30138,8 @@
       <c r="J835" s="3">
         <v>6.5458332697550459</v>
       </c>
-      <c r="K835" s="2" t="s">
-        <v>9</v>
+      <c r="K835" s="2">
+        <v>432.82582284426837</v>
       </c>
     </row>
     <row r="836" spans="1:11" x14ac:dyDescent="0.25">
@@ -30176,8 +30173,8 @@
       <c r="J836" s="3">
         <v>6.770833333333333</v>
       </c>
-      <c r="K836" s="2" t="s">
-        <v>9</v>
+      <c r="K836" s="2">
+        <v>412.32980956192057</v>
       </c>
     </row>
     <row r="837" spans="1:11" x14ac:dyDescent="0.25">
@@ -30211,8 +30208,8 @@
       <c r="J837" s="3">
         <v>5.0958330631256104</v>
       </c>
-      <c r="K837" s="2" t="s">
-        <v>9</v>
+      <c r="K837" s="2">
+        <v>407.1815572108834</v>
       </c>
     </row>
     <row r="838" spans="1:11" x14ac:dyDescent="0.25">
@@ -30246,8 +30243,8 @@
       <c r="J838" s="3">
         <v>6.9041665395100908</v>
       </c>
-      <c r="K838" s="2" t="s">
-        <v>9</v>
+      <c r="K838" s="2">
+        <v>362.47804057839085</v>
       </c>
     </row>
     <row r="839" spans="1:11" x14ac:dyDescent="0.25">
@@ -30281,8 +30278,8 @@
       <c r="J839" s="3">
         <v>4.68958322207133</v>
       </c>
-      <c r="K839" s="2" t="s">
-        <v>9</v>
+      <c r="K839" s="2">
+        <v>442.64662267118825</v>
       </c>
     </row>
     <row r="840" spans="1:11" x14ac:dyDescent="0.25">
@@ -30316,8 +30313,8 @@
       <c r="J840" s="3">
         <v>5.8249999284744263</v>
       </c>
-      <c r="K840" s="2" t="s">
-        <v>9</v>
+      <c r="K840" s="2">
+        <v>444.22402710516644</v>
       </c>
     </row>
     <row r="841" spans="1:11" x14ac:dyDescent="0.25">
@@ -30351,8 +30348,8 @@
       <c r="J841" s="3">
         <v>5.3583332697550459</v>
       </c>
-      <c r="K841" s="2" t="s">
-        <v>9</v>
+      <c r="K841" s="2">
+        <v>349.44071350342489</v>
       </c>
     </row>
     <row r="842" spans="1:11" x14ac:dyDescent="0.25">
@@ -30386,8 +30383,8 @@
       <c r="J842" s="3">
         <v>2.7354164918263755</v>
       </c>
-      <c r="K842" s="2" t="s">
-        <v>9</v>
+      <c r="K842" s="2">
+        <v>295.51076992103089</v>
       </c>
     </row>
     <row r="843" spans="1:11" x14ac:dyDescent="0.25">
@@ -30421,8 +30418,8 @@
       <c r="J843" s="3">
         <v>5.3187499046325684</v>
       </c>
-      <c r="K843" s="2" t="s">
-        <v>9</v>
+      <c r="K843" s="2">
+        <v>340.44712339376866</v>
       </c>
     </row>
     <row r="844" spans="1:11" x14ac:dyDescent="0.25">
@@ -30456,8 +30453,8 @@
       <c r="J844" s="3">
         <v>5.1416666110356646</v>
       </c>
-      <c r="K844" s="2" t="s">
-        <v>9</v>
+      <c r="K844" s="2">
+        <v>369.71315687486339</v>
       </c>
     </row>
     <row r="845" spans="1:11" x14ac:dyDescent="0.25">
@@ -30491,8 +30488,8 @@
       <c r="J845" s="3">
         <v>5.416666666666667</v>
       </c>
-      <c r="K845" s="2" t="s">
-        <v>9</v>
+      <c r="K845" s="2">
+        <v>337.96978515076142</v>
       </c>
     </row>
     <row r="846" spans="1:11" x14ac:dyDescent="0.25">
@@ -30526,8 +30523,8 @@
       <c r="J846" s="3">
         <v>6.583333333333333</v>
       </c>
-      <c r="K846" s="2" t="s">
-        <v>9</v>
+      <c r="K846" s="2">
+        <v>357.91493514321229</v>
       </c>
     </row>
     <row r="847" spans="1:11" x14ac:dyDescent="0.25">
@@ -30561,8 +30558,8 @@
       <c r="J847" s="3">
         <v>6.458333333333333</v>
       </c>
-      <c r="K847" s="2" t="s">
-        <v>9</v>
+      <c r="K847" s="2">
+        <v>366.90859218828837</v>
       </c>
     </row>
     <row r="848" spans="1:11" x14ac:dyDescent="0.25">
@@ -30596,8 +30593,8 @@
       <c r="J848" s="3">
         <v>4.1583333015441895</v>
       </c>
-      <c r="K848" s="2" t="s">
-        <v>9</v>
+      <c r="K848" s="2">
+        <v>395.30535788197233</v>
       </c>
     </row>
     <row r="849" spans="1:11" x14ac:dyDescent="0.25">
@@ -30631,8 +30628,8 @@
       <c r="J849" s="3">
         <v>6.3854165871938067</v>
       </c>
-      <c r="K849" s="2" t="s">
-        <v>9</v>
+      <c r="K849" s="2">
+        <v>380.89302846019228</v>
       </c>
     </row>
     <row r="850" spans="1:11" x14ac:dyDescent="0.25">
@@ -30666,8 +30663,8 @@
       <c r="J850" s="3">
         <v>5.422916491826375</v>
       </c>
-      <c r="K850" s="2" t="s">
-        <v>9</v>
+      <c r="K850" s="2">
+        <v>406.25234331728075</v>
       </c>
     </row>
     <row r="851" spans="1:11" x14ac:dyDescent="0.25">
@@ -30701,8 +30698,8 @@
       <c r="J851" s="3">
         <v>5.995833158493042</v>
       </c>
-      <c r="K851" s="2" t="s">
-        <v>9</v>
+      <c r="K851" s="2">
+        <v>431.19367115264419</v>
       </c>
     </row>
     <row r="852" spans="1:11" x14ac:dyDescent="0.25">
@@ -30736,8 +30733,8 @@
       <c r="J852" s="3">
         <v>7.3312497933705645</v>
       </c>
-      <c r="K852" s="2" t="s">
-        <v>9</v>
+      <c r="K852" s="2">
+        <v>345.14146198651832</v>
       </c>
     </row>
     <row r="853" spans="1:11" x14ac:dyDescent="0.25">
@@ -30771,8 +30768,8 @@
       <c r="J853" s="3">
         <v>4.6333332856496172</v>
       </c>
-      <c r="K853" s="2" t="s">
-        <v>9</v>
+      <c r="K853" s="2">
+        <v>403.07168548538544</v>
       </c>
     </row>
     <row r="854" spans="1:11" x14ac:dyDescent="0.25">
@@ -30806,8 +30803,8 @@
       <c r="J854" s="3">
         <v>4.5999999046325684</v>
       </c>
-      <c r="K854" s="2" t="s">
-        <v>9</v>
+      <c r="K854" s="2">
+        <v>441.91291056969862</v>
       </c>
     </row>
     <row r="855" spans="1:11" x14ac:dyDescent="0.25">
@@ -30841,8 +30838,8 @@
       <c r="J855" s="3">
         <v>4.8833333253860474</v>
       </c>
-      <c r="K855" s="2" t="s">
-        <v>9</v>
+      <c r="K855" s="2">
+        <v>400.91627179641324</v>
       </c>
     </row>
     <row r="856" spans="1:11" x14ac:dyDescent="0.25">
@@ -30876,8 +30873,8 @@
       <c r="J856" s="3">
         <v>6.560416380564372</v>
       </c>
-      <c r="K856" s="2" t="s">
-        <v>9</v>
+      <c r="K856" s="2">
+        <v>385.83161573123658</v>
       </c>
     </row>
     <row r="857" spans="1:11" x14ac:dyDescent="0.25">
@@ -30911,8 +30908,8 @@
       <c r="J857" s="3">
         <v>6.0583332379659014</v>
       </c>
-      <c r="K857" s="2" t="s">
-        <v>9</v>
+      <c r="K857" s="2">
+        <v>350.9735898895762</v>
       </c>
     </row>
     <row r="858" spans="1:11" x14ac:dyDescent="0.25">
@@ -30946,8 +30943,8 @@
       <c r="J858" s="3">
         <v>6.1875</v>
       </c>
-      <c r="K858" s="2" t="s">
-        <v>9</v>
+      <c r="K858" s="2">
+        <v>414.33034529818605</v>
       </c>
     </row>
     <row r="859" spans="1:11" x14ac:dyDescent="0.25">
@@ -30981,8 +30978,8 @@
       <c r="J859" s="3">
         <v>5.666666666666667</v>
       </c>
-      <c r="K859" s="2" t="s">
-        <v>9</v>
+      <c r="K859" s="2">
+        <v>391.42556540992263</v>
       </c>
     </row>
     <row r="860" spans="1:11" x14ac:dyDescent="0.25">
@@ -31016,8 +31013,8 @@
       <c r="J860" s="3">
         <v>4.1458330551783247</v>
       </c>
-      <c r="K860" s="2" t="s">
-        <v>9</v>
+      <c r="K860" s="2">
+        <v>356.36850309635582</v>
       </c>
     </row>
     <row r="861" spans="1:11" x14ac:dyDescent="0.25">
@@ -31051,8 +31048,8 @@
       <c r="J861" s="3">
         <v>6.8437499205271406</v>
       </c>
-      <c r="K861" s="2" t="s">
-        <v>9</v>
+      <c r="K861" s="2">
+        <v>435.13865005158578</v>
       </c>
     </row>
     <row r="862" spans="1:11" x14ac:dyDescent="0.25">
@@ -31086,8 +31083,8 @@
       <c r="J862" s="3">
         <v>4.4312498966852827</v>
       </c>
-      <c r="K862" s="2" t="s">
-        <v>9</v>
+      <c r="K862" s="2">
+        <v>464.71082396710722</v>
       </c>
     </row>
     <row r="863" spans="1:11" x14ac:dyDescent="0.25">
@@ -31121,8 +31118,8 @@
       <c r="J863" s="3">
         <v>5.7062495549519854</v>
       </c>
-      <c r="K863" s="2" t="s">
-        <v>9</v>
+      <c r="K863" s="2">
+        <v>433.74202466751206</v>
       </c>
     </row>
     <row r="864" spans="1:11" x14ac:dyDescent="0.25">
@@ -31156,8 +31153,8 @@
       <c r="J864" s="3">
         <v>5.7291662693023682</v>
       </c>
-      <c r="K864" s="2" t="s">
-        <v>9</v>
+      <c r="K864" s="2">
+        <v>407.46068254471845</v>
       </c>
     </row>
     <row r="865" spans="1:11" x14ac:dyDescent="0.25">
@@ -31191,8 +31188,8 @@
       <c r="J865" s="3">
         <v>7.5020825862884521</v>
       </c>
-      <c r="K865" s="2" t="s">
-        <v>9</v>
+      <c r="K865" s="2">
+        <v>502.90528952023851</v>
       </c>
     </row>
     <row r="866" spans="1:11" x14ac:dyDescent="0.25">
@@ -31226,8 +31223,8 @@
       <c r="J866" s="3">
         <v>6.9395828247070313</v>
       </c>
-      <c r="K866" s="2" t="s">
-        <v>9</v>
+      <c r="K866" s="2">
+        <v>425.93631111488122</v>
       </c>
     </row>
     <row r="867" spans="1:11" x14ac:dyDescent="0.25">
@@ -31261,8 +31258,8 @@
       <c r="J867" s="3">
         <v>5.5041664441426592</v>
       </c>
-      <c r="K867" s="2" t="s">
-        <v>9</v>
+      <c r="K867" s="2">
+        <v>437.14165059292884</v>
       </c>
     </row>
     <row r="868" spans="1:11" x14ac:dyDescent="0.25">
@@ -31296,8 +31293,8 @@
       <c r="J868" s="3">
         <v>7.395833333333333</v>
       </c>
-      <c r="K868" s="2" t="s">
-        <v>9</v>
+      <c r="K868" s="2">
+        <v>360.47101820589393</v>
       </c>
     </row>
     <row r="869" spans="1:11" x14ac:dyDescent="0.25">
@@ -31331,8 +31328,8 @@
       <c r="J869" s="3">
         <v>4.8770830233891802</v>
       </c>
-      <c r="K869" s="2" t="s">
-        <v>9</v>
+      <c r="K869" s="2">
+        <v>360.07540319554278</v>
       </c>
     </row>
     <row r="870" spans="1:11" x14ac:dyDescent="0.25">
@@ -31366,8 +31363,8 @@
       <c r="J870" s="3">
         <v>4.2374993165334063</v>
       </c>
-      <c r="K870" s="2" t="s">
-        <v>9</v>
+      <c r="K870" s="2">
+        <v>357.50643516189103</v>
       </c>
     </row>
     <row r="871" spans="1:11" x14ac:dyDescent="0.25">
@@ -31401,8 +31398,8 @@
       <c r="J871" s="3">
         <v>4.3708327611287432</v>
       </c>
-      <c r="K871" s="2" t="s">
-        <v>9</v>
+      <c r="K871" s="2">
+        <v>391.53490957638235</v>
       </c>
     </row>
     <row r="872" spans="1:11" x14ac:dyDescent="0.25">
@@ -31436,8 +31433,8 @@
       <c r="J872" s="3">
         <v>5.6333333253860474</v>
       </c>
-      <c r="K872" s="2" t="s">
-        <v>9</v>
+      <c r="K872" s="2">
+        <v>385.38360417604616</v>
       </c>
     </row>
     <row r="873" spans="1:11" x14ac:dyDescent="0.25">
@@ -31471,8 +31468,8 @@
       <c r="J873" s="3">
         <v>7.1812499364217119</v>
       </c>
-      <c r="K873" s="2" t="s">
-        <v>9</v>
+      <c r="K873" s="2">
+        <v>401.27565306512111</v>
       </c>
     </row>
     <row r="874" spans="1:11" x14ac:dyDescent="0.25">
@@ -31506,8 +31503,8 @@
       <c r="J874" s="3">
         <v>5.2229166030883789</v>
       </c>
-      <c r="K874" s="2" t="s">
-        <v>9</v>
+      <c r="K874" s="2">
+        <v>463.01815470518483</v>
       </c>
     </row>
     <row r="875" spans="1:11" x14ac:dyDescent="0.25">
@@ -31541,8 +31538,8 @@
       <c r="J875" s="3">
         <v>6.3874999682108564</v>
       </c>
-      <c r="K875" s="2" t="s">
-        <v>9</v>
+      <c r="K875" s="2">
+        <v>429.84687204227464</v>
       </c>
     </row>
     <row r="876" spans="1:11" x14ac:dyDescent="0.25">
@@ -31576,8 +31573,8 @@
       <c r="J876" s="3">
         <v>5.1645830869674683</v>
       </c>
-      <c r="K876" s="2" t="s">
-        <v>9</v>
+      <c r="K876" s="2">
+        <v>396.4624357638815</v>
       </c>
     </row>
     <row r="877" spans="1:11" x14ac:dyDescent="0.25">
@@ -31611,8 +31608,8 @@
       <c r="J877" s="3">
         <v>5.7916666269302368</v>
       </c>
-      <c r="K877" s="2" t="s">
-        <v>9</v>
+      <c r="K877" s="2">
+        <v>383.40084647174507</v>
       </c>
     </row>
     <row r="878" spans="1:11" x14ac:dyDescent="0.25">
@@ -31646,8 +31643,8 @@
       <c r="J878" s="3">
         <v>5.427082896232605</v>
       </c>
-      <c r="K878" s="2" t="s">
-        <v>9</v>
+      <c r="K878" s="2">
+        <v>383.11810401451913</v>
       </c>
     </row>
     <row r="879" spans="1:11" x14ac:dyDescent="0.25">
@@ -31681,8 +31678,8 @@
       <c r="J879" s="3">
         <v>7.8208332856496172</v>
       </c>
-      <c r="K879" s="2" t="s">
-        <v>9</v>
+      <c r="K879" s="2">
+        <v>452.0395782921579</v>
       </c>
     </row>
     <row r="880" spans="1:11" x14ac:dyDescent="0.25">
@@ -31716,8 +31713,8 @@
       <c r="J880" s="3">
         <v>4.591666380564372</v>
       </c>
-      <c r="K880" s="2" t="s">
-        <v>9</v>
+      <c r="K880" s="2">
+        <v>365.15043565426208</v>
       </c>
     </row>
     <row r="881" spans="1:11" x14ac:dyDescent="0.25">
@@ -31751,8 +31748,8 @@
       <c r="J881" s="3">
         <v>4.3708332379659014</v>
       </c>
-      <c r="K881" s="2" t="s">
-        <v>9</v>
+      <c r="K881" s="2">
+        <v>388.51250502806715</v>
       </c>
     </row>
     <row r="882" spans="1:11" x14ac:dyDescent="0.25">
@@ -31786,8 +31783,8 @@
       <c r="J882" s="3">
         <v>6.8416666189829511</v>
       </c>
-      <c r="K882" s="2" t="s">
-        <v>9</v>
+      <c r="K882" s="2">
+        <v>413.28299084929012</v>
       </c>
     </row>
     <row r="883" spans="1:11" x14ac:dyDescent="0.25">
@@ -31821,8 +31818,8 @@
       <c r="J883" s="3">
         <v>4.6479165951410932</v>
       </c>
-      <c r="K883" s="2" t="s">
-        <v>9</v>
+      <c r="K883" s="2">
+        <v>409.40573218127287</v>
       </c>
     </row>
     <row r="884" spans="1:11" x14ac:dyDescent="0.25">
@@ -31856,8 +31853,8 @@
       <c r="J884" s="3">
         <v>4.3791665236155195</v>
       </c>
-      <c r="K884" s="2" t="s">
-        <v>9</v>
+      <c r="K884" s="2">
+        <v>359.68648505810768</v>
       </c>
     </row>
     <row r="885" spans="1:11" x14ac:dyDescent="0.25">
@@ -31891,8 +31888,8 @@
       <c r="J885" s="3">
         <v>5.4541666507720947</v>
       </c>
-      <c r="K885" s="2" t="s">
-        <v>9</v>
+      <c r="K885" s="2">
+        <v>427.84515766209518</v>
       </c>
     </row>
     <row r="886" spans="1:11" x14ac:dyDescent="0.25">
@@ -31926,8 +31923,8 @@
       <c r="J886" s="3">
         <v>5.3791666030883789</v>
       </c>
-      <c r="K886" s="2" t="s">
-        <v>9</v>
+      <c r="K886" s="2">
+        <v>439.00411767326437</v>
       </c>
     </row>
     <row r="887" spans="1:11" x14ac:dyDescent="0.25">
@@ -31961,8 +31958,8 @@
       <c r="J887" s="3">
         <v>5.375</v>
       </c>
-      <c r="K887" s="2" t="s">
-        <v>9</v>
+      <c r="K887" s="2">
+        <v>434.91824308627827</v>
       </c>
     </row>
     <row r="888" spans="1:11" x14ac:dyDescent="0.25">
@@ -31996,8 +31993,8 @@
       <c r="J888" s="3">
         <v>6.3874999682108564</v>
       </c>
-      <c r="K888" s="2" t="s">
-        <v>9</v>
+      <c r="K888" s="2">
+        <v>454.70176040581009</v>
       </c>
     </row>
     <row r="889" spans="1:11" x14ac:dyDescent="0.25">
@@ -32031,8 +32028,8 @@
       <c r="J889" s="3">
         <v>5.6916666030883789</v>
       </c>
-      <c r="K889" s="2" t="s">
-        <v>9</v>
+      <c r="K889" s="2">
+        <v>428.65828330975773</v>
       </c>
     </row>
     <row r="890" spans="1:11" x14ac:dyDescent="0.25">
@@ -32066,8 +32063,8 @@
       <c r="J890" s="3">
         <v>6.6874999205271406</v>
       </c>
-      <c r="K890" s="2" t="s">
-        <v>9</v>
+      <c r="K890" s="2">
+        <v>382.06495085122054</v>
       </c>
     </row>
     <row r="891" spans="1:11" x14ac:dyDescent="0.25">
@@ -32101,8 +32098,8 @@
       <c r="J891" s="3">
         <v>5.452083071072896</v>
       </c>
-      <c r="K891" s="2" t="s">
-        <v>9</v>
+      <c r="K891" s="2">
+        <v>382.40358433843602</v>
       </c>
     </row>
     <row r="892" spans="1:11" x14ac:dyDescent="0.25">
@@ -32136,8 +32133,8 @@
       <c r="J892" s="3">
         <v>6.145833333333333</v>
       </c>
-      <c r="K892" s="2" t="s">
-        <v>9</v>
+      <c r="K892" s="2">
+        <v>371.14398873270613</v>
       </c>
     </row>
     <row r="893" spans="1:11" x14ac:dyDescent="0.25">
@@ -32171,8 +32168,8 @@
       <c r="J893" s="3">
         <v>4.9208332697550459</v>
       </c>
-      <c r="K893" s="2" t="s">
-        <v>9</v>
+      <c r="K893" s="2">
+        <v>419.8235997914569</v>
       </c>
     </row>
     <row r="894" spans="1:11" x14ac:dyDescent="0.25">
@@ -32206,8 +32203,8 @@
       <c r="J894" s="3">
         <v>5.7666666507720947</v>
       </c>
-      <c r="K894" s="2" t="s">
-        <v>9</v>
+      <c r="K894" s="2">
+        <v>425.1454654976252</v>
       </c>
     </row>
     <row r="895" spans="1:11" x14ac:dyDescent="0.25">
@@ -32241,8 +32238,8 @@
       <c r="J895" s="3">
         <v>5.4312499761581421</v>
       </c>
-      <c r="K895" s="2" t="s">
-        <v>9</v>
+      <c r="K895" s="2">
+        <v>457.43758799693319</v>
       </c>
     </row>
     <row r="896" spans="1:11" x14ac:dyDescent="0.25">
@@ -32276,8 +32273,8 @@
       <c r="J896" s="3">
         <v>4.1999996105829878</v>
       </c>
-      <c r="K896" s="2" t="s">
-        <v>9</v>
+      <c r="K896" s="2">
+        <v>446.55956114893337</v>
       </c>
     </row>
     <row r="897" spans="1:11" x14ac:dyDescent="0.25">
@@ -32311,8 +32308,8 @@
       <c r="J897" s="3">
         <v>6.3354166348775225</v>
       </c>
-      <c r="K897" s="2" t="s">
-        <v>9</v>
+      <c r="K897" s="2">
+        <v>414.80691876025446</v>
       </c>
     </row>
     <row r="898" spans="1:11" x14ac:dyDescent="0.25">
@@ -32346,8 +32343,8 @@
       <c r="J898" s="3">
         <v>4.9583331346511841</v>
       </c>
-      <c r="K898" s="2" t="s">
-        <v>9</v>
+      <c r="K898" s="2">
+        <v>363.51205207203276</v>
       </c>
     </row>
     <row r="899" spans="1:11" x14ac:dyDescent="0.25">
@@ -32381,8 +32378,8 @@
       <c r="J899" s="3">
         <v>7.6104166507720947</v>
       </c>
-      <c r="K899" s="2" t="s">
-        <v>9</v>
+      <c r="K899" s="2">
+        <v>461.77913950830293</v>
       </c>
     </row>
     <row r="900" spans="1:11" x14ac:dyDescent="0.25">
@@ -32416,8 +32413,8 @@
       <c r="J900" s="3">
         <v>5.6187496582667036</v>
       </c>
-      <c r="K900" s="2" t="s">
-        <v>9</v>
+      <c r="K900" s="2">
+        <v>447.78365589806862</v>
       </c>
     </row>
     <row r="901" spans="1:11" x14ac:dyDescent="0.25">
@@ -32451,8 +32448,8 @@
       <c r="J901" s="3">
         <v>4.5708333253860474</v>
       </c>
-      <c r="K901" s="2" t="s">
-        <v>9</v>
+      <c r="K901" s="2">
+        <v>514.48691086523604</v>
       </c>
     </row>
     <row r="902" spans="1:11" x14ac:dyDescent="0.25">
@@ -32486,8 +32483,8 @@
       <c r="J902" s="3">
         <v>4.6895827849706011</v>
       </c>
-      <c r="K902" s="2" t="s">
-        <v>9</v>
+      <c r="K902" s="2">
+        <v>448.99381493563749</v>
       </c>
     </row>
     <row r="903" spans="1:11" x14ac:dyDescent="0.25">
@@ -32521,8 +32518,8 @@
       <c r="J903" s="3">
         <v>4.8020830154418945</v>
       </c>
-      <c r="K903" s="2" t="s">
-        <v>9</v>
+      <c r="K903" s="2">
+        <v>429.58712453694477</v>
       </c>
     </row>
     <row r="904" spans="1:11" x14ac:dyDescent="0.25">
@@ -32556,8 +32553,8 @@
       <c r="J904" s="3">
         <v>6.4375</v>
       </c>
-      <c r="K904" s="2" t="s">
-        <v>9</v>
+      <c r="K904" s="2">
+        <v>434.07864824139187</v>
       </c>
     </row>
     <row r="905" spans="1:11" x14ac:dyDescent="0.25">
@@ -32591,8 +32588,8 @@
       <c r="J905" s="3">
         <v>6.4083332618077593</v>
       </c>
-      <c r="K905" s="2" t="s">
-        <v>9</v>
+      <c r="K905" s="2">
+        <v>420.51587752169246</v>
       </c>
     </row>
     <row r="906" spans="1:11" x14ac:dyDescent="0.25">
@@ -32626,8 +32623,8 @@
       <c r="J906" s="3">
         <v>6.6687499682108564</v>
       </c>
-      <c r="K906" s="2" t="s">
-        <v>9</v>
+      <c r="K906" s="2">
+        <v>437.07621166595897</v>
       </c>
     </row>
     <row r="907" spans="1:11" x14ac:dyDescent="0.25">
@@ -32661,8 +32658,8 @@
       <c r="J907" s="3">
         <v>4.4624998966852827</v>
       </c>
-      <c r="K907" s="2" t="s">
-        <v>9</v>
+      <c r="K907" s="2">
+        <v>456.9780671695205</v>
       </c>
     </row>
     <row r="908" spans="1:11" x14ac:dyDescent="0.25">
@@ -32696,8 +32693,8 @@
       <c r="J908" s="3">
         <v>3.4083331823348999</v>
       </c>
-      <c r="K908" s="2" t="s">
-        <v>9</v>
+      <c r="K908" s="2">
+        <v>469.01802149157982</v>
       </c>
     </row>
     <row r="909" spans="1:11" x14ac:dyDescent="0.25">
@@ -32731,8 +32728,8 @@
       <c r="J909" s="3">
         <v>6.3562499682108564</v>
       </c>
-      <c r="K909" s="2" t="s">
-        <v>9</v>
+      <c r="K909" s="2">
+        <v>431.35017288145616</v>
       </c>
     </row>
     <row r="910" spans="1:11" x14ac:dyDescent="0.25">
@@ -32766,8 +32763,8 @@
       <c r="J910" s="3">
         <v>5.3312498728434248</v>
       </c>
-      <c r="K910" s="2" t="s">
-        <v>9</v>
+      <c r="K910" s="2">
+        <v>464.68176576448184</v>
       </c>
     </row>
     <row r="911" spans="1:11" x14ac:dyDescent="0.25">
@@ -32801,8 +32798,8 @@
       <c r="J911" s="3">
         <v>5.6604164441426592</v>
       </c>
-      <c r="K911" s="2" t="s">
-        <v>9</v>
+      <c r="K911" s="2">
+        <v>508.89770921348651</v>
       </c>
     </row>
     <row r="912" spans="1:11" x14ac:dyDescent="0.25">
@@ -32836,8 +32833,8 @@
       <c r="J912" s="3">
         <v>4.927083333333333</v>
       </c>
-      <c r="K912" s="2" t="s">
-        <v>9</v>
+      <c r="K912" s="2">
+        <v>512.41654565655494</v>
       </c>
     </row>
     <row r="913" spans="1:11" x14ac:dyDescent="0.25">
@@ -32871,8 +32868,8 @@
       <c r="J913" s="3">
         <v>5.6604165633519488</v>
       </c>
-      <c r="K913" s="2" t="s">
-        <v>9</v>
+      <c r="K913" s="2">
+        <v>472.02761029759199</v>
       </c>
     </row>
     <row r="914" spans="1:11" x14ac:dyDescent="0.25">
@@ -32906,8 +32903,8 @@
       <c r="J914" s="3">
         <v>3.5291663010915122</v>
       </c>
-      <c r="K914" s="2" t="s">
-        <v>9</v>
+      <c r="K914" s="2">
+        <v>546.30989524447898</v>
       </c>
     </row>
     <row r="915" spans="1:11" x14ac:dyDescent="0.25">
@@ -32941,8 +32938,8 @@
       <c r="J915" s="3">
         <v>3.6937499443689981</v>
       </c>
-      <c r="K915" s="2" t="s">
-        <v>9</v>
+      <c r="K915" s="2">
+        <v>532.32940260788246</v>
       </c>
     </row>
   </sheetData>
